--- a/Programming_Tools/Spells.xlsx
+++ b/Programming_Tools/Spells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\GitHub Clones\www\wangte\Programming_Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB65F6C-003D-47D1-BFCB-9F4FF0CADF4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{382CBF3A-B736-4CAC-AE47-ECE179AFCD84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6848,12 +6848,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S574"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H185" sqref="H185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6862,7 +6861,7 @@
     <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" customWidth="1"/>
     <col min="8" max="8" width="42.28515625" customWidth="1"/>
     <col min="9" max="9" width="30.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
@@ -6930,7 +6929,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6985,7 +6984,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7038,7 +7037,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -7201,7 +7200,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -7364,7 +7363,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -7419,7 +7418,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -7474,7 +7473,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -7525,7 +7524,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -7580,7 +7579,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -7633,7 +7632,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -7686,7 +7685,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7796,7 +7795,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7851,7 +7850,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7904,7 +7903,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8018,7 +8017,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8069,7 +8068,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8124,7 +8123,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8295,7 +8294,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8348,7 +8347,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8513,7 +8512,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8568,7 +8567,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8621,7 +8620,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -8676,7 +8675,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -8731,7 +8730,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -8784,7 +8783,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -8837,7 +8836,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -8890,7 +8889,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -8943,7 +8942,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -8998,7 +8997,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9102,7 +9101,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9155,7 +9154,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9210,7 +9209,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9263,7 +9262,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9316,7 +9315,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9369,7 +9368,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9422,7 +9421,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9475,7 +9474,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9585,7 +9584,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9638,7 +9637,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9691,7 +9690,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9744,7 +9743,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9797,7 +9796,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9958,7 +9957,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -10131,7 +10130,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -10186,7 +10185,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10239,7 +10238,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10290,7 +10289,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10343,7 +10342,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10396,7 +10395,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10739,7 +10738,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10794,7 +10793,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10847,7 +10846,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10902,7 +10901,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10955,7 +10954,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -11063,7 +11062,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -11116,7 +11115,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -11169,7 +11168,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -11224,7 +11223,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -11277,7 +11276,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -11332,7 +11331,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -11387,7 +11386,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -11440,7 +11439,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -11493,7 +11492,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -11548,7 +11547,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="87" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -11601,7 +11600,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -11766,7 +11765,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11819,7 +11818,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11927,7 +11926,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11982,7 +11981,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12094,7 +12093,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12147,7 +12146,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12371,7 +12370,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12424,7 +12423,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12479,7 +12478,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12534,7 +12533,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12587,7 +12586,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12640,7 +12639,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12746,7 +12745,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12917,7 +12916,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -13031,7 +13030,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -13086,7 +13085,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -13192,7 +13191,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -13245,7 +13244,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -13298,7 +13297,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -13353,7 +13352,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -13406,7 +13405,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -13514,7 +13513,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -13628,7 +13627,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -13681,7 +13680,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -13734,7 +13733,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -13789,7 +13788,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -13842,7 +13841,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -13895,7 +13894,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -13948,7 +13947,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -14001,7 +14000,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="132" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -14056,7 +14055,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="133" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -14111,7 +14110,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="134" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -14166,7 +14165,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="135" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -14219,7 +14218,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -14272,7 +14271,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="137" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -14327,7 +14326,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="138" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -14382,7 +14381,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="139" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -14435,7 +14434,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="140" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -14488,7 +14487,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="141" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -14600,7 +14599,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="143" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -14653,7 +14652,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="144" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="145" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -14759,7 +14758,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="146" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -14812,7 +14811,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="147" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -14924,7 +14923,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="149" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -15038,7 +15037,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="151" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -15093,7 +15092,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="152" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -15146,7 +15145,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="153" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="154" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -15252,7 +15251,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="155" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -15307,7 +15306,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="156" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -15360,7 +15359,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -15413,7 +15412,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="158" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -15468,7 +15467,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="159" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -15521,7 +15520,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="160" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="161" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -15625,7 +15624,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="162" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -15678,7 +15677,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="163" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -15729,7 +15728,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="164" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -15782,7 +15781,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="165" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -15835,7 +15834,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="166" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -15890,7 +15889,7 @@
         <v>1580</v>
       </c>
     </row>
-    <row r="167" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="168" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -15998,7 +15997,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="169" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -16051,7 +16050,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="170" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -16104,7 +16103,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="171" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -16159,7 +16158,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="172" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -16212,7 +16211,7 @@
         <v>1586</v>
       </c>
     </row>
-    <row r="173" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="174" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -16320,7 +16319,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="175" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -16373,7 +16372,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="176" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -16426,7 +16425,7 @@
         <v>1590</v>
       </c>
     </row>
-    <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -16479,7 +16478,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="178" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -16534,7 +16533,7 @@
         <v>1592</v>
       </c>
     </row>
-    <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -16587,7 +16586,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="180" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -16640,7 +16639,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="181" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -16695,7 +16694,7 @@
         <v>1595</v>
       </c>
     </row>
-    <row r="182" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="183" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -16805,7 +16804,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="184" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -16920,7 +16919,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="186" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -16971,7 +16970,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="187" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -17081,7 +17080,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="189" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -17134,7 +17133,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="190" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -17187,7 +17186,7 @@
         <v>1604</v>
       </c>
     </row>
-    <row r="191" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -17240,7 +17239,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="192" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -17293,7 +17292,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="193" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -17348,7 +17347,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="194" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -17401,7 +17400,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="195" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -17515,7 +17514,7 @@
         <v>1610</v>
       </c>
     </row>
-    <row r="197" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -17568,7 +17567,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="198" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -17623,7 +17622,7 @@
         <v>1612</v>
       </c>
     </row>
-    <row r="199" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="200" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -17731,7 +17730,7 @@
         <v>1614</v>
       </c>
     </row>
-    <row r="201" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -17786,7 +17785,7 @@
         <v>1615</v>
       </c>
     </row>
-    <row r="202" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -17841,7 +17840,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="203" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -17894,7 +17893,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="204" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -17949,7 +17948,7 @@
         <v>1618</v>
       </c>
     </row>
-    <row r="205" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -18120,7 +18119,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="208" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -18232,7 +18231,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="210" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -18287,7 +18286,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="211" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -18342,7 +18341,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="212" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -18395,7 +18394,7 @@
         <v>1626</v>
       </c>
     </row>
-    <row r="213" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -18448,7 +18447,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="214" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -18503,7 +18502,7 @@
         <v>1628</v>
       </c>
     </row>
-    <row r="215" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -18558,7 +18557,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="216" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -18672,7 +18671,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="218" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -18725,7 +18724,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="219" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -18780,7 +18779,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="220" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -18833,7 +18832,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="221" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -18943,7 +18942,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="223" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -18994,7 +18993,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="224" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -19108,7 +19107,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="226" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -19163,7 +19162,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="227" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -19216,7 +19215,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="228" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -19269,7 +19268,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="229" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -19322,7 +19321,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="230" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -19377,7 +19376,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="231" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -19548,7 +19547,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="234" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -19601,7 +19600,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="235" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -19711,7 +19710,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="237" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -19764,7 +19763,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="238" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -19817,7 +19816,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="239" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -19870,7 +19869,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="240" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -19923,7 +19922,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="242" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -20088,7 +20087,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -20143,7 +20142,7 @@
         <v>1658</v>
       </c>
     </row>
-    <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -20196,7 +20195,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="246" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -20249,7 +20248,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="247" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -20304,7 +20303,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="248" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -20357,7 +20356,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="249" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -20410,7 +20409,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="250" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -20465,7 +20464,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="251" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -20516,7 +20515,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="252" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -20569,7 +20568,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="253" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -20624,7 +20623,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="254" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -20736,7 +20735,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="256" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -20789,7 +20788,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="257" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -20844,7 +20843,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="258" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -20899,7 +20898,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="259" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -21013,7 +21012,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="261" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -21066,7 +21065,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="262" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -21121,7 +21120,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="263" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -21174,7 +21173,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="264" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -21229,7 +21228,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="265" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -21284,7 +21283,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="266" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -21339,7 +21338,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="267" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -21394,7 +21393,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="268" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -21507,7 +21506,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="270" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -21620,7 +21619,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="272" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -21789,7 +21788,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="275" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -21901,7 +21900,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="277" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -22015,7 +22014,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="279" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -22070,7 +22069,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="280" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -22125,7 +22124,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="281" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -22178,7 +22177,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="282" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -22233,7 +22232,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="283" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -22286,7 +22285,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="284" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -22339,7 +22338,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="285" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -22392,7 +22391,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="286" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -22445,7 +22444,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="287" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -22498,7 +22497,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="288" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -22551,7 +22550,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="289" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -22604,7 +22603,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="290" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -22659,7 +22658,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="291" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -22773,7 +22772,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="293" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -22888,7 +22887,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="295" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -22943,7 +22942,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="296" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -23114,7 +23113,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="299" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -23169,7 +23168,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="300" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -23222,7 +23221,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="301" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -23277,7 +23276,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="302" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -23330,7 +23329,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="303" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -23385,7 +23384,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="304" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -23436,7 +23435,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="305" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -23491,7 +23490,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="306" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -23544,7 +23543,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="307" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -23597,7 +23596,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="308" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -23652,7 +23651,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="309" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -23707,7 +23706,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="310" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -23762,7 +23761,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="311" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -23817,7 +23816,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="312" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -23870,7 +23869,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="313" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -23925,7 +23924,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="314" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -24096,7 +24095,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="317" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -24208,7 +24207,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="319" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -24261,7 +24260,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="320" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -24314,7 +24313,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="321" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -24365,7 +24364,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="322" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -24420,7 +24419,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="323" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -24473,7 +24472,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="324" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -24526,7 +24525,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="325" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -24579,7 +24578,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="326" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -24634,7 +24633,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="327" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -24689,7 +24688,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="328" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -24744,7 +24743,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="329" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -24797,7 +24796,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="330" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -24850,7 +24849,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="331" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -24905,7 +24904,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="332" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -24960,7 +24959,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="333" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -25015,7 +25014,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="334" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -25068,7 +25067,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="335" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -25121,7 +25120,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="336" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -25176,7 +25175,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="337" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -25288,7 +25287,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="339" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -25341,7 +25340,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="340" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -25394,7 +25393,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="341" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -25447,7 +25446,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="342" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -25500,7 +25499,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="343" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -25553,7 +25552,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="344" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -25606,7 +25605,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="345" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -25659,7 +25658,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="346" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -25712,7 +25711,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="347" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -25767,7 +25766,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="348" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -25820,7 +25819,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="349" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -25873,7 +25872,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="350" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -25926,7 +25925,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="351" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -25979,7 +25978,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="352" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -26032,7 +26031,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="353" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -26085,7 +26084,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="354" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -26140,7 +26139,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="355" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -26254,7 +26253,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="357" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -26368,7 +26367,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="359" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -26421,7 +26420,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="360" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -26476,7 +26475,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="361" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -26531,7 +26530,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="362" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -26645,7 +26644,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="364" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -26700,7 +26699,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="365" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -26812,7 +26811,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="367" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -26867,7 +26866,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="368" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -26922,7 +26921,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="369" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -26975,7 +26974,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="370" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -27030,7 +27029,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="371" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -27085,7 +27084,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="372" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -27140,7 +27139,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="373" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -27193,7 +27192,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="374" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -27246,7 +27245,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="375" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -27417,7 +27416,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="378" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -27470,7 +27469,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="379" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -27523,7 +27522,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="380" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -27578,7 +27577,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="381" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -27631,7 +27630,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="382" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -27684,7 +27683,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="383" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -27737,7 +27736,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="384" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -27790,7 +27789,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="385" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -27843,7 +27842,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="386" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -27896,7 +27895,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="387" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -27949,7 +27948,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="388" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -28002,7 +28001,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="389" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -28053,7 +28052,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="390" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -28106,7 +28105,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="391" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -28159,7 +28158,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="392" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -28330,7 +28329,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="395" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -28385,7 +28384,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="396" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -28438,7 +28437,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="397" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -28493,7 +28492,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="398" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -28546,7 +28545,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="399" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -28599,7 +28598,7 @@
         <v>1813</v>
       </c>
     </row>
-    <row r="400" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -28652,7 +28651,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="401" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -28705,7 +28704,7 @@
         <v>1815</v>
       </c>
     </row>
-    <row r="402" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -28756,7 +28755,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="403" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -28809,7 +28808,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="404" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -28862,7 +28861,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="405" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -28974,7 +28973,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="407" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -29029,7 +29028,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="408" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -29082,7 +29081,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="409" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -29135,7 +29134,7 @@
         <v>1823</v>
       </c>
     </row>
-    <row r="410" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -29188,7 +29187,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="411" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -29241,7 +29240,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="412" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -29294,7 +29293,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="413" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -29347,7 +29346,7 @@
         <v>1827</v>
       </c>
     </row>
-    <row r="414" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -29459,7 +29458,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="416" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -29512,7 +29511,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="417" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -29565,7 +29564,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="418" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -29679,7 +29678,7 @@
         <v>1833</v>
       </c>
     </row>
-    <row r="420" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -29793,7 +29792,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="422" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -29848,7 +29847,7 @@
         <v>1836</v>
       </c>
     </row>
-    <row r="423" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -29901,7 +29900,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="424" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -29956,7 +29955,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="425" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -30007,7 +30006,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="426" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -30060,7 +30059,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="427" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -30172,7 +30171,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="429" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -30225,7 +30224,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="430" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -30280,7 +30279,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="431" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -30333,7 +30332,7 @@
         <v>1845</v>
       </c>
     </row>
-    <row r="432" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -30388,7 +30387,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="433" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -30500,7 +30499,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="435" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -30610,7 +30609,7 @@
         <v>1850</v>
       </c>
     </row>
-    <row r="437" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -30722,7 +30721,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="439" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -30777,7 +30776,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="440" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -30830,7 +30829,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="441" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -30885,7 +30884,7 @@
         <v>1855</v>
       </c>
     </row>
-    <row r="442" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -30940,7 +30939,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="443" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -30993,7 +30992,7 @@
         <v>1857</v>
       </c>
     </row>
-    <row r="444" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -31046,7 +31045,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="445" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -31099,7 +31098,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="446" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -31152,7 +31151,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="447" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -31266,7 +31265,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="449" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -31319,7 +31318,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="450" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -31372,7 +31371,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="451" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -31427,7 +31426,7 @@
         <v>1865</v>
       </c>
     </row>
-    <row r="452" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -31482,7 +31481,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="453" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -31537,7 +31536,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="454" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -31592,7 +31591,7 @@
         <v>1868</v>
       </c>
     </row>
-    <row r="455" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -31647,7 +31646,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="456" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -31761,7 +31760,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="458" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -31814,7 +31813,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="459" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -31867,7 +31866,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="460" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -31922,7 +31921,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="461" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -31975,7 +31974,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="462" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -32030,7 +32029,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="463" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -32085,7 +32084,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="464" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -32140,7 +32139,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="465" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -32191,7 +32190,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="466" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -32244,7 +32243,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="467" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -32297,7 +32296,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="468" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -32409,7 +32408,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="470" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -32464,7 +32463,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="471" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -32578,7 +32577,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="473" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -32629,7 +32628,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="474" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -32682,7 +32681,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="475" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -32735,7 +32734,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="476" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -33606,7 +33605,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="491" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -33661,7 +33660,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="492" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -33948,7 +33947,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="497" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -34003,7 +34002,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="498" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -34058,7 +34057,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="499" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -34111,7 +34110,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="500" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -34223,7 +34222,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="502" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -34276,7 +34275,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="503" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -34329,7 +34328,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="504" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -34384,7 +34383,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="505" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -34439,7 +34438,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="506" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -34494,7 +34493,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="507" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -34602,7 +34601,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="509" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -34655,7 +34654,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="510" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -34710,7 +34709,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="511" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -34881,7 +34880,7 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="514" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -34932,7 +34931,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="515" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -34987,7 +34986,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="516" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -35099,7 +35098,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="518" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -35152,7 +35151,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="519" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -35207,7 +35206,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="520" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -35260,7 +35259,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="521" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -35313,7 +35312,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="522" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -35366,7 +35365,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="523" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -35419,7 +35418,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="524" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -35472,7 +35471,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="525" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -35584,7 +35583,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="527" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -35637,7 +35636,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="528" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -35690,7 +35689,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="529" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -35743,7 +35742,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="530" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -35796,7 +35795,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="531" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -35851,7 +35850,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="532" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -35906,7 +35905,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="533" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -35957,7 +35956,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="534" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -36010,7 +36009,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="535" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -36183,7 +36182,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="538" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -36236,7 +36235,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="539" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -36287,7 +36286,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="540" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -36338,7 +36337,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="541" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -36393,7 +36392,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="542" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -36446,7 +36445,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="543" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -36499,7 +36498,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="544" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -36552,7 +36551,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="545" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -36607,7 +36606,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="546" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -36662,7 +36661,7 @@
         <v>1960</v>
       </c>
     </row>
-    <row r="547" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -36717,7 +36716,7 @@
         <v>1961</v>
       </c>
     </row>
-    <row r="548" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -36772,7 +36771,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="549" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -36827,7 +36826,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="550" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -36882,7 +36881,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="551" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -36937,7 +36936,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="552" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -36990,7 +36989,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="553" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -37104,7 +37103,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="555" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -37157,7 +37156,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="556" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -37212,7 +37211,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="557" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -37267,7 +37266,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="558" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -37322,7 +37321,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="559" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -37377,7 +37376,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="560" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -37430,7 +37429,7 @@
         <v>1974</v>
       </c>
     </row>
-    <row r="561" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -37485,7 +37484,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="562" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -37536,7 +37535,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="563" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -37589,7 +37588,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="564" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -37644,7 +37643,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="565" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -37697,7 +37696,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="566" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -37752,7 +37751,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="567" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -37807,7 +37806,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="568" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -37860,7 +37859,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="569" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -37911,7 +37910,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="570" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -37964,7 +37963,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="571" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -38015,7 +38014,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="572" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -38066,7 +38065,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="573" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -38117,7 +38116,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="574" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -38172,11 +38171,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:R574" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="11">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R574">
       <sortCondition ref="B1:B574"/>
     </sortState>
